--- a/Excel Dataframes, EDA and Predictive Modelling/Bundesliga_understat.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/Bundesliga_understat.xlsx
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -5132,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77" t="n">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" t="n">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" t="n">
         <v>0</v>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" t="n">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" t="n">
         <v>0</v>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" t="n">
         <v>0</v>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -7580,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99" t="n">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="n">
         <v>0</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
         <v>0</v>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" t="n">
         <v>0</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T106" t="n">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -8300,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109" t="n">
         <v>0</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -8444,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T111" t="n">
         <v>0</v>
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -8588,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113" t="n">
         <v>0</v>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" t="n">
         <v>0</v>
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" t="n">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T118" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T121" t="n">
         <v>0</v>
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T125" t="n">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="S126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T126" t="n">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129" t="n">
         <v>0</v>
@@ -9812,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133" t="n">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134" t="n">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137" t="n">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139" t="n">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="S140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="S142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142" t="n">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T144" t="n">
         <v>0</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -11036,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="S147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T147" t="n">
         <v>0</v>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T148" t="n">
         <v>0</v>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -11252,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="S150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150" t="n">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T153" t="n">
         <v>0</v>
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="T154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -11612,7 +11612,7 @@
         <v>1</v>
       </c>
       <c r="S155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T155" t="n">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="S156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T156" t="n">
         <v>0</v>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="T157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -11828,7 +11828,7 @@
         <v>1</v>
       </c>
       <c r="S158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T158" t="n">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="T159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T160" t="n">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="T161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -12116,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="S162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T162" t="n">
         <v>0</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="T163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -12260,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="S164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T164" t="n">
         <v>0</v>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="T165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T166" t="n">
         <v>0</v>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -12548,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="S168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T168" t="n">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="T169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T170" t="n">
         <v>0</v>
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="T171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="T174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -13052,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="S175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T175" t="n">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T176" t="n">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="T177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T178" t="n">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="T179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="T180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -13484,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T181" t="n">
         <v>0</v>
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="T182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -13628,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="S183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T183" t="n">
         <v>0</v>
@@ -13700,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="S184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T184" t="n">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="T185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T186" t="n">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="T187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -13988,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T188" t="n">
         <v>0</v>
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="T189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -14132,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T190" t="n">
         <v>0</v>
@@ -14207,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="T191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="T192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -14348,7 +14348,7 @@
         <v>1</v>
       </c>
       <c r="S193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T193" t="n">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="T194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T195" t="n">
         <v>0</v>
@@ -14564,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T196" t="n">
         <v>0</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="T197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -14708,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="S198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T198" t="n">
         <v>0</v>
@@ -14783,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="T199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="T202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -15068,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="S203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T203" t="n">
         <v>0</v>
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="T204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T205" t="n">
         <v>0</v>
@@ -15287,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="T206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="S207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T207" t="n">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T208" t="n">
         <v>0</v>
@@ -15503,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="T209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="T210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="S211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T211" t="n">
         <v>0</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="T212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -15788,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T213" t="n">
         <v>0</v>
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="T214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T215" t="n">
         <v>0</v>
@@ -16007,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="T216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -16076,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T217" t="n">
         <v>0</v>
@@ -16295,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="T220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T221" t="n">
         <v>0</v>
@@ -16439,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="T222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T223" t="n">
         <v>0</v>
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T224" t="n">
         <v>0</v>
@@ -16655,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="T225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -16724,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="S226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T226" t="n">
         <v>0</v>
@@ -16799,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="T227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -16868,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="S228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T228" t="n">
         <v>0</v>
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="T229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -17012,7 +17012,7 @@
         <v>1</v>
       </c>
       <c r="S230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T230" t="n">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T232" t="n">
         <v>0</v>
@@ -17231,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="T233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -17300,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T234" t="n">
         <v>0</v>
@@ -17375,7 +17375,7 @@
         <v>0</v>
       </c>
       <c r="T235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="T236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T237" t="n">
         <v>0</v>
@@ -17588,7 +17588,7 @@
         <v>1</v>
       </c>
       <c r="S238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T238" t="n">
         <v>0</v>
@@ -17663,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="T239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="T240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -17804,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T241" t="n">
         <v>0</v>
@@ -17876,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T242" t="n">
         <v>0</v>
@@ -17951,7 +17951,7 @@
         <v>0</v>
       </c>
       <c r="T243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -18020,7 +18020,7 @@
         <v>1</v>
       </c>
       <c r="S244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T244" t="n">
         <v>0</v>
@@ -18095,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="T245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -18167,7 +18167,7 @@
         <v>0</v>
       </c>
       <c r="T246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -18236,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T247" t="n">
         <v>0</v>
@@ -18308,7 +18308,7 @@
         <v>0</v>
       </c>
       <c r="S248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T248" t="n">
         <v>0</v>
@@ -18383,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="T249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -18455,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="T250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -18524,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="S251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T251" t="n">
         <v>0</v>
@@ -18599,7 +18599,7 @@
         <v>0</v>
       </c>
       <c r="T252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -18668,7 +18668,7 @@
         <v>1</v>
       </c>
       <c r="S253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T253" t="n">
         <v>0</v>
@@ -18743,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="T254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -18812,7 +18812,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T255" t="n">
         <v>0</v>
@@ -18884,7 +18884,7 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T256" t="n">
         <v>0</v>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="T257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -19028,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="S258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T258" t="n">
         <v>0</v>
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="T259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -19172,7 +19172,7 @@
         <v>1</v>
       </c>
       <c r="S260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T260" t="n">
         <v>0</v>
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="T261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -19316,7 +19316,7 @@
         <v>0</v>
       </c>
       <c r="S262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T262" t="n">
         <v>0</v>
@@ -19391,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="T263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T264" t="n">
         <v>0</v>
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="T265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T266" t="n">
         <v>0</v>
@@ -19679,7 +19679,7 @@
         <v>0</v>
       </c>
       <c r="T267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -19748,7 +19748,7 @@
         <v>1</v>
       </c>
       <c r="S268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T268" t="n">
         <v>0</v>
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="T269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -19892,7 +19892,7 @@
         <v>1</v>
       </c>
       <c r="S270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T270" t="n">
         <v>0</v>
@@ -19967,7 +19967,7 @@
         <v>0</v>
       </c>
       <c r="T271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="S272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T272" t="n">
         <v>0</v>
@@ -20111,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="T273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -20180,7 +20180,7 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T274" t="n">
         <v>0</v>
@@ -20255,7 +20255,7 @@
         <v>0</v>
       </c>
       <c r="T275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="T276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -20396,7 +20396,7 @@
         <v>0</v>
       </c>
       <c r="S277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T277" t="n">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="T278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -20540,7 +20540,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T279" t="n">
         <v>0</v>
@@ -20612,7 +20612,7 @@
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T280" t="n">
         <v>0</v>
@@ -20687,7 +20687,7 @@
         <v>0</v>
       </c>
       <c r="T281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -20759,7 +20759,7 @@
         <v>0</v>
       </c>
       <c r="T282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -20828,7 +20828,7 @@
         <v>0</v>
       </c>
       <c r="S283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T283" t="n">
         <v>0</v>
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="T284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -20972,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="S285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T285" t="n">
         <v>0</v>
@@ -21047,7 +21047,7 @@
         <v>0</v>
       </c>
       <c r="T286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="S287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T287" t="n">
         <v>0</v>
@@ -21188,7 +21188,7 @@
         <v>1</v>
       </c>
       <c r="S288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T288" t="n">
         <v>0</v>
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="T289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="S290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T290" t="n">
         <v>0</v>
@@ -21407,7 +21407,7 @@
         <v>0</v>
       </c>
       <c r="T291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -21476,7 +21476,7 @@
         <v>1</v>
       </c>
       <c r="S292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T292" t="n">
         <v>0</v>
@@ -21551,7 +21551,7 @@
         <v>0</v>
       </c>
       <c r="T293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -21620,7 +21620,7 @@
         <v>1</v>
       </c>
       <c r="S294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T294" t="n">
         <v>0</v>
@@ -21695,7 +21695,7 @@
         <v>0</v>
       </c>
       <c r="T295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="T296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -21836,7 +21836,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T297" t="n">
         <v>0</v>
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="T298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T299" t="n">
         <v>0</v>
@@ -22055,7 +22055,7 @@
         <v>0</v>
       </c>
       <c r="T300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -22124,7 +22124,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T301" t="n">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>0</v>
       </c>
       <c r="S304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T304" t="n">
         <v>0</v>
@@ -22415,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="T305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -22484,7 +22484,7 @@
         <v>0</v>
       </c>
       <c r="S306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T306" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="T307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -22628,7 +22628,7 @@
         <v>1</v>
       </c>
       <c r="S308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T308" t="n">
         <v>0</v>
@@ -22703,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="T309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -22772,7 +22772,7 @@
         <v>0</v>
       </c>
       <c r="S310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T310" t="n">
         <v>0</v>
@@ -22847,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="T311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -22916,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="S312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T312" t="n">
         <v>0</v>
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="T313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="T314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -23132,7 +23132,7 @@
         <v>1</v>
       </c>
       <c r="S315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T315" t="n">
         <v>0</v>
@@ -23207,7 +23207,7 @@
         <v>0</v>
       </c>
       <c r="T316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -23276,7 +23276,7 @@
         <v>1</v>
       </c>
       <c r="S317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T317" t="n">
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>1</v>
       </c>
       <c r="S318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T318" t="n">
         <v>0</v>
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="T319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -23492,7 +23492,7 @@
         <v>1</v>
       </c>
       <c r="S320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T320" t="n">
         <v>0</v>
@@ -23567,7 +23567,7 @@
         <v>0</v>
       </c>
       <c r="T321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="T322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="S323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T323" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="S325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T325" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="S328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T328" t="n">
         <v>0</v>
@@ -24143,7 +24143,7 @@
         <v>0</v>
       </c>
       <c r="T329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="T330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -24284,7 +24284,7 @@
         <v>0</v>
       </c>
       <c r="S331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T331" t="n">
         <v>0</v>
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="T332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -24428,7 +24428,7 @@
         <v>1</v>
       </c>
       <c r="S333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T333" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>1</v>
       </c>
       <c r="S334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T334" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -24644,7 +24644,7 @@
         <v>1</v>
       </c>
       <c r="S336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T336" t="n">
         <v>0</v>
@@ -24719,7 +24719,7 @@
         <v>0</v>
       </c>
       <c r="T337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -24791,7 +24791,7 @@
         <v>0</v>
       </c>
       <c r="T338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -24860,7 +24860,7 @@
         <v>1</v>
       </c>
       <c r="S339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T339" t="n">
         <v>0</v>
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="T340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="S341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T341" t="n">
         <v>0</v>
@@ -25079,7 +25079,7 @@
         <v>0</v>
       </c>
       <c r="T342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -25148,7 +25148,7 @@
         <v>0</v>
       </c>
       <c r="S343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T343" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="S344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T344" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="T345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -25364,7 +25364,7 @@
         <v>0</v>
       </c>
       <c r="S346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T346" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="T347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="T348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -25580,7 +25580,7 @@
         <v>0</v>
       </c>
       <c r="S349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T349" t="n">
         <v>0</v>
@@ -25655,7 +25655,7 @@
         <v>0</v>
       </c>
       <c r="T350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="S351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T351" t="n">
         <v>0</v>
@@ -25799,7 +25799,7 @@
         <v>0</v>
       </c>
       <c r="T352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="S353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T353" t="n">
         <v>0</v>
@@ -25940,7 +25940,7 @@
         <v>0</v>
       </c>
       <c r="S354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T354" t="n">
         <v>0</v>
@@ -26015,7 +26015,7 @@
         <v>0</v>
       </c>
       <c r="T355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -26087,7 +26087,7 @@
         <v>0</v>
       </c>
       <c r="T356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -26156,7 +26156,7 @@
         <v>0</v>
       </c>
       <c r="S357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T357" t="n">
         <v>0</v>
@@ -26228,7 +26228,7 @@
         <v>1</v>
       </c>
       <c r="S358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T358" t="n">
         <v>0</v>
@@ -26303,7 +26303,7 @@
         <v>0</v>
       </c>
       <c r="T359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="S360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T360" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>0</v>
       </c>
       <c r="T361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -26519,7 +26519,7 @@
         <v>0</v>
       </c>
       <c r="T362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -26588,7 +26588,7 @@
         <v>1</v>
       </c>
       <c r="S363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T363" t="n">
         <v>0</v>
@@ -26663,7 +26663,7 @@
         <v>0</v>
       </c>
       <c r="T364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
       <c r="S365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T365" t="n">
         <v>0</v>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="S366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T366" t="n">
         <v>0</v>
@@ -26879,7 +26879,7 @@
         <v>0</v>
       </c>
       <c r="T367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -26948,7 +26948,7 @@
         <v>1</v>
       </c>
       <c r="S368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T368" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>0</v>
       </c>
       <c r="T369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -27092,7 +27092,7 @@
         <v>0</v>
       </c>
       <c r="S370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T370" t="n">
         <v>0</v>
@@ -27167,7 +27167,7 @@
         <v>0</v>
       </c>
       <c r="T371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -27236,7 +27236,7 @@
         <v>1</v>
       </c>
       <c r="S372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T372" t="n">
         <v>0</v>
@@ -27311,7 +27311,7 @@
         <v>0</v>
       </c>
       <c r="T373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -27383,7 +27383,7 @@
         <v>0</v>
       </c>
       <c r="T374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -27452,7 +27452,7 @@
         <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T375" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="S376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T376" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="T377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -27668,7 +27668,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T378" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="T379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -27812,7 +27812,7 @@
         <v>0</v>
       </c>
       <c r="S380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T380" t="n">
         <v>0</v>
@@ -27887,7 +27887,7 @@
         <v>0</v>
       </c>
       <c r="T381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -27956,7 +27956,7 @@
         <v>0</v>
       </c>
       <c r="S382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T382" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="T383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -28103,7 +28103,7 @@
         <v>0</v>
       </c>
       <c r="T384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -28172,7 +28172,7 @@
         <v>1</v>
       </c>
       <c r="S385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T385" t="n">
         <v>0</v>
@@ -28247,7 +28247,7 @@
         <v>0</v>
       </c>
       <c r="T386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="S387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T387" t="n">
         <v>0</v>
@@ -28388,7 +28388,7 @@
         <v>0</v>
       </c>
       <c r="S388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T388" t="n">
         <v>0</v>
@@ -28463,7 +28463,7 @@
         <v>0</v>
       </c>
       <c r="T389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="S390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T390" t="n">
         <v>0</v>
@@ -28607,7 +28607,7 @@
         <v>0</v>
       </c>
       <c r="T391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -28676,7 +28676,7 @@
         <v>0</v>
       </c>
       <c r="S392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T392" t="n">
         <v>0</v>
@@ -28751,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="T393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -28820,7 +28820,7 @@
         <v>1</v>
       </c>
       <c r="S394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T394" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="T395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -28967,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="T396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -29036,7 +29036,7 @@
         <v>0</v>
       </c>
       <c r="S397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T397" t="n">
         <v>0</v>
@@ -29108,7 +29108,7 @@
         <v>1</v>
       </c>
       <c r="S398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T398" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="T399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -29252,7 +29252,7 @@
         <v>0</v>
       </c>
       <c r="S400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T400" t="n">
         <v>0</v>
@@ -29327,7 +29327,7 @@
         <v>0</v>
       </c>
       <c r="T401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -29396,7 +29396,7 @@
         <v>1</v>
       </c>
       <c r="S402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T402" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="T403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -29540,7 +29540,7 @@
         <v>1</v>
       </c>
       <c r="S404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T404" t="n">
         <v>0</v>
@@ -29615,7 +29615,7 @@
         <v>0</v>
       </c>
       <c r="T405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="T406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -29756,7 +29756,7 @@
         <v>0</v>
       </c>
       <c r="S407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T407" t="n">
         <v>0</v>
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="T408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -29900,7 +29900,7 @@
         <v>0</v>
       </c>
       <c r="S409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T409" t="n">
         <v>0</v>
@@ -29972,7 +29972,7 @@
         <v>1</v>
       </c>
       <c r="S410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T410" t="n">
         <v>0</v>
@@ -30047,7 +30047,7 @@
         <v>0</v>
       </c>
       <c r="T411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="S412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T412" t="n">
         <v>0</v>
@@ -30191,7 +30191,7 @@
         <v>0</v>
       </c>
       <c r="T413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -30263,7 +30263,7 @@
         <v>0</v>
       </c>
       <c r="T414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -30332,7 +30332,7 @@
         <v>1</v>
       </c>
       <c r="S415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T415" t="n">
         <v>0</v>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="T416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -30476,7 +30476,7 @@
         <v>0</v>
       </c>
       <c r="S417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T417" t="n">
         <v>0</v>
@@ -30548,7 +30548,7 @@
         <v>1</v>
       </c>
       <c r="S418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T418" t="n">
         <v>0</v>
@@ -30623,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="T419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -30692,7 +30692,7 @@
         <v>0</v>
       </c>
       <c r="S420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T420" t="n">
         <v>0</v>
@@ -30767,7 +30767,7 @@
         <v>0</v>
       </c>
       <c r="T421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="T422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -30908,7 +30908,7 @@
         <v>0</v>
       </c>
       <c r="S423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T423" t="n">
         <v>0</v>
@@ -30980,7 +30980,7 @@
         <v>1</v>
       </c>
       <c r="S424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T424" t="n">
         <v>0</v>
@@ -31055,7 +31055,7 @@
         <v>0</v>
       </c>
       <c r="T425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -31127,7 +31127,7 @@
         <v>0</v>
       </c>
       <c r="T426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -31196,7 +31196,7 @@
         <v>0</v>
       </c>
       <c r="S427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T427" t="n">
         <v>0</v>
@@ -31268,7 +31268,7 @@
         <v>1</v>
       </c>
       <c r="S428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T428" t="n">
         <v>0</v>
@@ -31343,7 +31343,7 @@
         <v>0</v>
       </c>
       <c r="T429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -31412,7 +31412,7 @@
         <v>0</v>
       </c>
       <c r="S430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T430" t="n">
         <v>0</v>
@@ -31487,7 +31487,7 @@
         <v>0</v>
       </c>
       <c r="T431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -31559,7 +31559,7 @@
         <v>0</v>
       </c>
       <c r="T432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -31628,7 +31628,7 @@
         <v>0</v>
       </c>
       <c r="S433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T433" t="n">
         <v>0</v>
@@ -31703,7 +31703,7 @@
         <v>0</v>
       </c>
       <c r="T434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -31772,7 +31772,7 @@
         <v>0</v>
       </c>
       <c r="S435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T435" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>0</v>
       </c>
       <c r="S436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T436" t="n">
         <v>0</v>
@@ -31919,7 +31919,7 @@
         <v>0</v>
       </c>
       <c r="T437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -31988,7 +31988,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T438" t="n">
         <v>0</v>
@@ -32063,7 +32063,7 @@
         <v>0</v>
       </c>
       <c r="T439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -32135,7 +32135,7 @@
         <v>0</v>
       </c>
       <c r="T440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -32204,7 +32204,7 @@
         <v>1</v>
       </c>
       <c r="S441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T441" t="n">
         <v>0</v>
@@ -32276,7 +32276,7 @@
         <v>0</v>
       </c>
       <c r="S442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T442" t="n">
         <v>0</v>
@@ -32351,7 +32351,7 @@
         <v>0</v>
       </c>
       <c r="T443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -32420,7 +32420,7 @@
         <v>0</v>
       </c>
       <c r="S444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T444" t="n">
         <v>0</v>
@@ -32495,7 +32495,7 @@
         <v>0</v>
       </c>
       <c r="T445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -32564,7 +32564,7 @@
         <v>1</v>
       </c>
       <c r="S446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T446" t="n">
         <v>0</v>
@@ -32639,7 +32639,7 @@
         <v>0</v>
       </c>
       <c r="T447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -32708,7 +32708,7 @@
         <v>0</v>
       </c>
       <c r="S448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T448" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>0</v>
       </c>
       <c r="T449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -32852,7 +32852,7 @@
         <v>0</v>
       </c>
       <c r="S450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T450" t="n">
         <v>0</v>
@@ -32927,7 +32927,7 @@
         <v>0</v>
       </c>
       <c r="T451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -32996,7 +32996,7 @@
         <v>0</v>
       </c>
       <c r="S452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T452" t="n">
         <v>0</v>
@@ -33071,7 +33071,7 @@
         <v>0</v>
       </c>
       <c r="T453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -33140,7 +33140,7 @@
         <v>0</v>
       </c>
       <c r="S454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T454" t="n">
         <v>0</v>
@@ -33215,7 +33215,7 @@
         <v>0</v>
       </c>
       <c r="T455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -33284,7 +33284,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T456" t="n">
         <v>0</v>
@@ -33359,7 +33359,7 @@
         <v>0</v>
       </c>
       <c r="T457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -33428,7 +33428,7 @@
         <v>1</v>
       </c>
       <c r="S458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T458" t="n">
         <v>0</v>
@@ -33503,7 +33503,7 @@
         <v>0</v>
       </c>
       <c r="T459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -33572,7 +33572,7 @@
         <v>0</v>
       </c>
       <c r="S460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T460" t="n">
         <v>0</v>
@@ -33647,7 +33647,7 @@
         <v>0</v>
       </c>
       <c r="T461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -33716,7 +33716,7 @@
         <v>0</v>
       </c>
       <c r="S462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T462" t="n">
         <v>0</v>
@@ -33791,7 +33791,7 @@
         <v>0</v>
       </c>
       <c r="T463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -33863,7 +33863,7 @@
         <v>0</v>
       </c>
       <c r="T464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -33932,7 +33932,7 @@
         <v>0</v>
       </c>
       <c r="S465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T465" t="n">
         <v>0</v>
@@ -34004,7 +34004,7 @@
         <v>0</v>
       </c>
       <c r="S466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T466" t="n">
         <v>0</v>
@@ -34079,7 +34079,7 @@
         <v>0</v>
       </c>
       <c r="T467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -34148,7 +34148,7 @@
         <v>1</v>
       </c>
       <c r="S468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T468" t="n">
         <v>0</v>
@@ -34223,7 +34223,7 @@
         <v>0</v>
       </c>
       <c r="T469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -34295,7 +34295,7 @@
         <v>0</v>
       </c>
       <c r="T470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -34364,7 +34364,7 @@
         <v>0</v>
       </c>
       <c r="S471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T471" t="n">
         <v>0</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="S472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T472" t="n">
         <v>0</v>
@@ -34511,7 +34511,7 @@
         <v>0</v>
       </c>
       <c r="T473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -34580,7 +34580,7 @@
         <v>1</v>
       </c>
       <c r="S474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T474" t="n">
         <v>0</v>
@@ -34655,7 +34655,7 @@
         <v>0</v>
       </c>
       <c r="T475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -34724,7 +34724,7 @@
         <v>1</v>
       </c>
       <c r="S476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T476" t="n">
         <v>0</v>
@@ -34799,7 +34799,7 @@
         <v>0</v>
       </c>
       <c r="T477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="S478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T478" t="n">
         <v>0</v>
@@ -34943,7 +34943,7 @@
         <v>0</v>
       </c>
       <c r="T479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="T480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -35084,7 +35084,7 @@
         <v>0</v>
       </c>
       <c r="S481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T481" t="n">
         <v>0</v>
@@ -35159,7 +35159,7 @@
         <v>0</v>
       </c>
       <c r="T482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -35228,7 +35228,7 @@
         <v>1</v>
       </c>
       <c r="S483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T483" t="n">
         <v>0</v>
@@ -35303,7 +35303,7 @@
         <v>0</v>
       </c>
       <c r="T484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -35372,7 +35372,7 @@
         <v>0</v>
       </c>
       <c r="S485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T485" t="n">
         <v>0</v>
@@ -35444,7 +35444,7 @@
         <v>1</v>
       </c>
       <c r="S486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T486" t="n">
         <v>0</v>
@@ -35519,7 +35519,7 @@
         <v>0</v>
       </c>
       <c r="T487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -35591,7 +35591,7 @@
         <v>0</v>
       </c>
       <c r="T488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -35660,7 +35660,7 @@
         <v>0</v>
       </c>
       <c r="S489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T489" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="S490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T490" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="T491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -35876,7 +35876,7 @@
         <v>0</v>
       </c>
       <c r="S492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T492" t="n">
         <v>0</v>
@@ -35951,7 +35951,7 @@
         <v>0</v>
       </c>
       <c r="T493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -36020,7 +36020,7 @@
         <v>1</v>
       </c>
       <c r="S494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T494" t="n">
         <v>0</v>
@@ -36095,7 +36095,7 @@
         <v>0</v>
       </c>
       <c r="T495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -36164,7 +36164,7 @@
         <v>0</v>
       </c>
       <c r="S496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T496" t="n">
         <v>0</v>
@@ -36239,7 +36239,7 @@
         <v>0</v>
       </c>
       <c r="T497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -36311,7 +36311,7 @@
         <v>0</v>
       </c>
       <c r="T498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -36380,7 +36380,7 @@
         <v>1</v>
       </c>
       <c r="S499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T499" t="n">
         <v>0</v>
@@ -36596,7 +36596,7 @@
         <v>1</v>
       </c>
       <c r="S502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T502" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="T503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -36740,7 +36740,7 @@
         <v>1</v>
       </c>
       <c r="S504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T504" t="n">
         <v>0</v>
@@ -36815,7 +36815,7 @@
         <v>0</v>
       </c>
       <c r="T505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="T506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -36956,7 +36956,7 @@
         <v>0</v>
       </c>
       <c r="S507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T507" t="n">
         <v>0</v>
@@ -37028,7 +37028,7 @@
         <v>0</v>
       </c>
       <c r="S508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T508" t="n">
         <v>0</v>
@@ -37103,7 +37103,7 @@
         <v>0</v>
       </c>
       <c r="T509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -37175,7 +37175,7 @@
         <v>0</v>
       </c>
       <c r="T510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -37244,7 +37244,7 @@
         <v>0</v>
       </c>
       <c r="S511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T511" t="n">
         <v>0</v>
@@ -37319,7 +37319,7 @@
         <v>0</v>
       </c>
       <c r="T512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -37388,7 +37388,7 @@
         <v>1</v>
       </c>
       <c r="S513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T513" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="T514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -37532,7 +37532,7 @@
         <v>0</v>
       </c>
       <c r="S515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T515" t="n">
         <v>0</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="T516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -37676,7 +37676,7 @@
         <v>0</v>
       </c>
       <c r="S517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T517" t="n">
         <v>0</v>
@@ -37748,7 +37748,7 @@
         <v>1</v>
       </c>
       <c r="S518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T518" t="n">
         <v>0</v>
@@ -37823,7 +37823,7 @@
         <v>0</v>
       </c>
       <c r="T519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -37892,7 +37892,7 @@
         <v>1</v>
       </c>
       <c r="S520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T520" t="n">
         <v>0</v>
@@ -37967,7 +37967,7 @@
         <v>0</v>
       </c>
       <c r="T521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -38036,7 +38036,7 @@
         <v>1</v>
       </c>
       <c r="S522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T522" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="T523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -38180,7 +38180,7 @@
         <v>0</v>
       </c>
       <c r="S524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T524" t="n">
         <v>0</v>
@@ -38255,7 +38255,7 @@
         <v>0</v>
       </c>
       <c r="T525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -38324,7 +38324,7 @@
         <v>0</v>
       </c>
       <c r="S526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T526" t="n">
         <v>0</v>
@@ -38399,7 +38399,7 @@
         <v>0</v>
       </c>
       <c r="T527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -38471,7 +38471,7 @@
         <v>0</v>
       </c>
       <c r="T528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -38540,7 +38540,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T529" t="n">
         <v>0</v>
@@ -38759,7 +38759,7 @@
         <v>0</v>
       </c>
       <c r="T532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -38828,7 +38828,7 @@
         <v>0</v>
       </c>
       <c r="S533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T533" t="n">
         <v>0</v>
@@ -38903,7 +38903,7 @@
         <v>0</v>
       </c>
       <c r="T534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -38972,7 +38972,7 @@
         <v>0</v>
       </c>
       <c r="S535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T535" t="n">
         <v>0</v>
@@ -39044,7 +39044,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T536" t="n">
         <v>0</v>
@@ -39119,7 +39119,7 @@
         <v>0</v>
       </c>
       <c r="T537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -39191,7 +39191,7 @@
         <v>0</v>
       </c>
       <c r="T538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -39260,7 +39260,7 @@
         <v>0</v>
       </c>
       <c r="S539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T539" t="n">
         <v>0</v>
@@ -39332,7 +39332,7 @@
         <v>0</v>
       </c>
       <c r="S540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T540" t="n">
         <v>0</v>
@@ -39407,7 +39407,7 @@
         <v>0</v>
       </c>
       <c r="T541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -39479,7 +39479,7 @@
         <v>0</v>
       </c>
       <c r="T542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -39548,7 +39548,7 @@
         <v>1</v>
       </c>
       <c r="S543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T543" t="n">
         <v>0</v>
@@ -39623,7 +39623,7 @@
         <v>0</v>
       </c>
       <c r="T544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -39692,7 +39692,7 @@
         <v>0</v>
       </c>
       <c r="S545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T545" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="T546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -39836,7 +39836,7 @@
         <v>0</v>
       </c>
       <c r="S547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T547" t="n">
         <v>0</v>
@@ -39908,7 +39908,7 @@
         <v>1</v>
       </c>
       <c r="S548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T548" t="n">
         <v>0</v>
@@ -39983,7 +39983,7 @@
         <v>0</v>
       </c>
       <c r="T549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -40052,7 +40052,7 @@
         <v>1</v>
       </c>
       <c r="S550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T550" t="n">
         <v>0</v>
@@ -40127,7 +40127,7 @@
         <v>0</v>
       </c>
       <c r="T551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -40196,7 +40196,7 @@
         <v>0</v>
       </c>
       <c r="S552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T552" t="n">
         <v>0</v>
@@ -40271,7 +40271,7 @@
         <v>0</v>
       </c>
       <c r="T553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -40343,7 +40343,7 @@
         <v>0</v>
       </c>
       <c r="T554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -40412,7 +40412,7 @@
         <v>1</v>
       </c>
       <c r="S555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T555" t="n">
         <v>0</v>
@@ -40484,7 +40484,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T556" t="n">
         <v>0</v>
@@ -40559,7 +40559,7 @@
         <v>0</v>
       </c>
       <c r="T557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -40628,7 +40628,7 @@
         <v>0</v>
       </c>
       <c r="S558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T558" t="n">
         <v>0</v>
@@ -40703,7 +40703,7 @@
         <v>0</v>
       </c>
       <c r="T559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -40775,7 +40775,7 @@
         <v>0</v>
       </c>
       <c r="T560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -40844,7 +40844,7 @@
         <v>1</v>
       </c>
       <c r="S561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T561" t="n">
         <v>0</v>
@@ -40916,7 +40916,7 @@
         <v>0</v>
       </c>
       <c r="S562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T562" t="n">
         <v>0</v>
@@ -40991,7 +40991,7 @@
         <v>0</v>
       </c>
       <c r="T563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -41063,7 +41063,7 @@
         <v>0</v>
       </c>
       <c r="T564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -41132,7 +41132,7 @@
         <v>0</v>
       </c>
       <c r="S565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T565" t="n">
         <v>0</v>
@@ -41207,7 +41207,7 @@
         <v>0</v>
       </c>
       <c r="T566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -41276,7 +41276,7 @@
         <v>1</v>
       </c>
       <c r="S567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T567" t="n">
         <v>0</v>
@@ -41351,7 +41351,7 @@
         <v>0</v>
       </c>
       <c r="T568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -41420,7 +41420,7 @@
         <v>0</v>
       </c>
       <c r="S569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T569" t="n">
         <v>0</v>
@@ -41495,7 +41495,7 @@
         <v>0</v>
       </c>
       <c r="T570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -41564,7 +41564,7 @@
         <v>0</v>
       </c>
       <c r="S571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T571" t="n">
         <v>0</v>
@@ -41780,7 +41780,7 @@
         <v>0</v>
       </c>
       <c r="S574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T574" t="n">
         <v>0</v>
@@ -41855,7 +41855,7 @@
         <v>0</v>
       </c>
       <c r="T575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -41924,7 +41924,7 @@
         <v>1</v>
       </c>
       <c r="S576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T576" t="n">
         <v>0</v>
@@ -41999,7 +41999,7 @@
         <v>0</v>
       </c>
       <c r="T577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -42071,7 +42071,7 @@
         <v>0</v>
       </c>
       <c r="T578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -42140,7 +42140,7 @@
         <v>1</v>
       </c>
       <c r="S579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T579" t="n">
         <v>0</v>
@@ -42212,7 +42212,7 @@
         <v>0</v>
       </c>
       <c r="S580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T580" t="n">
         <v>0</v>
@@ -42287,7 +42287,7 @@
         <v>0</v>
       </c>
       <c r="T581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -42356,7 +42356,7 @@
         <v>1</v>
       </c>
       <c r="S582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T582" t="n">
         <v>0</v>
@@ -42431,7 +42431,7 @@
         <v>0</v>
       </c>
       <c r="T583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -42500,7 +42500,7 @@
         <v>0</v>
       </c>
       <c r="S584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T584" t="n">
         <v>0</v>
@@ -42575,7 +42575,7 @@
         <v>0</v>
       </c>
       <c r="T585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -42644,7 +42644,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T586" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>0</v>
       </c>
       <c r="T587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -42791,7 +42791,7 @@
         <v>0</v>
       </c>
       <c r="T588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -42860,7 +42860,7 @@
         <v>0</v>
       </c>
       <c r="S589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T589" t="n">
         <v>0</v>
@@ -42932,7 +42932,7 @@
         <v>1</v>
       </c>
       <c r="S590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T590" t="n">
         <v>0</v>
@@ -43007,7 +43007,7 @@
         <v>0</v>
       </c>
       <c r="T591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -43079,7 +43079,7 @@
         <v>0</v>
       </c>
       <c r="T592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -43148,7 +43148,7 @@
         <v>0</v>
       </c>
       <c r="S593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T593" t="n">
         <v>0</v>
@@ -43220,7 +43220,7 @@
         <v>0</v>
       </c>
       <c r="S594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T594" t="n">
         <v>0</v>
@@ -43295,7 +43295,7 @@
         <v>0</v>
       </c>
       <c r="T595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -43364,7 +43364,7 @@
         <v>0</v>
       </c>
       <c r="S596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T596" t="n">
         <v>0</v>
@@ -43439,7 +43439,7 @@
         <v>0</v>
       </c>
       <c r="T597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -43511,7 +43511,7 @@
         <v>0</v>
       </c>
       <c r="T598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -43580,7 +43580,7 @@
         <v>0</v>
       </c>
       <c r="S599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T599" t="n">
         <v>0</v>
@@ -43652,7 +43652,7 @@
         <v>0</v>
       </c>
       <c r="S600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T600" t="n">
         <v>0</v>
@@ -43727,7 +43727,7 @@
         <v>0</v>
       </c>
       <c r="T601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -43799,7 +43799,7 @@
         <v>0</v>
       </c>
       <c r="T602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -43868,7 +43868,7 @@
         <v>0</v>
       </c>
       <c r="S603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T603" t="n">
         <v>0</v>
@@ -43940,7 +43940,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T604" t="n">
         <v>0</v>
@@ -44015,7 +44015,7 @@
         <v>0</v>
       </c>
       <c r="T605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -44087,7 +44087,7 @@
         <v>0</v>
       </c>
       <c r="T606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -44156,7 +44156,7 @@
         <v>1</v>
       </c>
       <c r="S607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T607" t="n">
         <v>0</v>
@@ -44228,7 +44228,7 @@
         <v>0</v>
       </c>
       <c r="S608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T608" t="n">
         <v>0</v>
@@ -44303,7 +44303,7 @@
         <v>0</v>
       </c>
       <c r="T609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -44372,7 +44372,7 @@
         <v>1</v>
       </c>
       <c r="S610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T610" t="n">
         <v>0</v>
@@ -44447,7 +44447,7 @@
         <v>0</v>
       </c>
       <c r="T611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -44519,7 +44519,7 @@
         <v>0</v>
       </c>
       <c r="T612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -44588,7 +44588,7 @@
         <v>0</v>
       </c>
       <c r="S613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T613" t="n">
         <v>0</v>
